--- a/Pattern Generation/Font.xlsx
+++ b/Pattern Generation/Font.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Spin Clock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\SpinClock\Pattern Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379AFE4D-DF95-4466-A39F-0FBE54D842E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869565D-9ABA-45CF-8303-EF540AA6859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E17C82C2-B828-470B-BC9C-90465598B9B0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E17C82C2-B828-470B-BC9C-90465598B9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="62">
   <si>
     <t>A</t>
   </si>
@@ -276,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -290,6 +291,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09B6BEE-4CC4-475F-9770-D8ED7DB4BA22}">
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1269,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A959ABE5-AF08-492C-8449-8DCA2CC368BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3A5A9-B12C-45E6-A42F-2A4148A9807F}">
   <dimension ref="A1:BT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,245 +2153,724 @@
       </c>
     </row>
     <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
         <v>9</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J12" s="5">
         <v>10</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K12" s="5">
         <v>11</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L12" s="5">
         <v>12</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M12" s="5">
         <v>13</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N12" s="5">
         <v>14</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O12" s="5">
         <v>15</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P12" s="5">
         <v>16</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q12" s="5">
         <v>17</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R12" s="5">
         <v>18</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S12" s="5">
         <v>19</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T12" s="5">
         <v>20</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U12" s="5">
         <v>21</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V12" s="5">
         <v>22</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W12" s="5">
         <v>23</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X12" s="5">
         <v>24</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y12" s="5">
         <v>25</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z12" s="5">
         <v>26</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA12" s="5">
         <v>27</v>
       </c>
-      <c r="AB7" s="5">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="5">
+      <c r="AB12" s="5">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="5">
         <v>29</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD12" s="5">
         <v>30</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE12" s="5">
         <v>31</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF12" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>COUNTIF($A$2:$BT$4,A7)</f>
+    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>COUNTIF($A$2:$BT$4,A12)</f>
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ref="B8:AF8" si="0">COUNTIF($A$2:$BT$4,B7)</f>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:AG13" si="0">COUNTIF($A$2:$BT$4,B12)</f>
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V13" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W13" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z13" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA13" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD13" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE13" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF13" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>33-COUNTIF($A$8:$AF$8,0)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2404,4 +2885,1578 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A959ABE5-AF08-492C-8449-8DCA2CC368BA}">
+  <dimension ref="A1:BT20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="7">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>7</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>4</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
+        <v>7</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>6</v>
+      </c>
+      <c r="AN2">
+        <v>3</v>
+      </c>
+      <c r="AO2">
+        <v>6</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>7</v>
+      </c>
+      <c r="AR2">
+        <v>2</v>
+      </c>
+      <c r="AS2">
+        <v>8</v>
+      </c>
+      <c r="AT2">
+        <v>6</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>2</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>8</v>
+      </c>
+      <c r="BE2">
+        <v>4</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>8</v>
+      </c>
+      <c r="BI2">
+        <v>5</v>
+      </c>
+      <c r="BJ2">
+        <v>7</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>8</v>
+      </c>
+      <c r="BM2">
+        <v>3</v>
+      </c>
+      <c r="BN2">
+        <v>5</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>4</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>6</v>
+      </c>
+      <c r="BS2">
+        <v>6</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>8</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>6</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>4</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3">
+        <v>8</v>
+      </c>
+      <c r="AQ3">
+        <v>7</v>
+      </c>
+      <c r="AR3">
+        <v>7</v>
+      </c>
+      <c r="AS3">
+        <v>7</v>
+      </c>
+      <c r="AT3">
+        <v>7</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
+      </c>
+      <c r="AZ3">
+        <v>7</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3">
+        <v>7</v>
+      </c>
+      <c r="BE3">
+        <v>2</v>
+      </c>
+      <c r="BF3">
+        <v>6</v>
+      </c>
+      <c r="BG3">
+        <v>7</v>
+      </c>
+      <c r="BH3">
+        <v>8</v>
+      </c>
+      <c r="BI3">
+        <v>7</v>
+      </c>
+      <c r="BJ3">
+        <v>6</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>7</v>
+      </c>
+      <c r="BM3">
+        <v>7</v>
+      </c>
+      <c r="BN3">
+        <v>7</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
+        <v>6</v>
+      </c>
+      <c r="BQ3">
+        <v>6</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>6</v>
+      </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
+      <c r="AO4">
+        <v>7</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>7</v>
+      </c>
+      <c r="AS4">
+        <v>7</v>
+      </c>
+      <c r="AT4">
+        <v>6</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>8</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>2</v>
+      </c>
+      <c r="BE4">
+        <v>3</v>
+      </c>
+      <c r="BF4">
+        <v>6</v>
+      </c>
+      <c r="BG4">
+        <v>7</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>7</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>8</v>
+      </c>
+      <c r="BN4">
+        <v>2</v>
+      </c>
+      <c r="BO4">
+        <v>4</v>
+      </c>
+      <c r="BP4">
+        <v>4</v>
+      </c>
+      <c r="BQ4">
+        <v>7</v>
+      </c>
+      <c r="BR4">
+        <v>6</v>
+      </c>
+      <c r="BS4">
+        <v>4</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <v>8</v>
+      </c>
+      <c r="AP5">
+        <v>6</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>7</v>
+      </c>
+      <c r="AS5">
+        <v>7</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
+      <c r="AV5">
+        <v>7</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>7</v>
+      </c>
+      <c r="BA5">
+        <v>7</v>
+      </c>
+      <c r="BB5">
+        <v>7</v>
+      </c>
+      <c r="BC5">
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <v>7</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>7</v>
+      </c>
+      <c r="BH5">
+        <v>2</v>
+      </c>
+      <c r="BI5">
+        <v>7</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>7</v>
+      </c>
+      <c r="BN5">
+        <v>7</v>
+      </c>
+      <c r="BO5">
+        <v>8</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>6</v>
+      </c>
+      <c r="BR5">
+        <v>6</v>
+      </c>
+      <c r="BS5">
+        <v>6</v>
+      </c>
+      <c r="BT5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>6</v>
+      </c>
+      <c r="AN6">
+        <v>5</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>8</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>8</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>7</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>8</v>
+      </c>
+      <c r="BB6">
+        <v>2</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>8</v>
+      </c>
+      <c r="BE6">
+        <v>7</v>
+      </c>
+      <c r="BF6">
+        <v>4</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <v>5</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>4</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>3</v>
+      </c>
+      <c r="BN6">
+        <v>5</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>4</v>
+      </c>
+      <c r="BS6">
+        <v>6</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF($A$2:$BT$4,E8)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF($A$2:$BT$4,E9)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF($A$2:$BT$4,E10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF($A$2:$BT$4,E11)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF($A$2:$BT$4,E12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF($A$2:$BT$4,E13)</f>
+        <v>53</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF($A$2:$BT$4,E14)</f>
+        <v>38</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF($A$2:$BT$4,E15)</f>
+        <v>20</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AP16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="42:46" x14ac:dyDescent="0.25">
+      <c r="AP17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="42:46" x14ac:dyDescent="0.25">
+      <c r="AP18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="42:46" x14ac:dyDescent="0.25">
+      <c r="AP19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="42:46" x14ac:dyDescent="0.25">
+      <c r="AP20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>